--- a/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 7 - Introduction to Table Properties/Main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 7 - Introduction to Table Properties/Main.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Step3" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Step1!$C$12:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Step2!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Step3!$C$12:$F$15</definedName>
     <definedName name="_st1">Step1!$C$8</definedName>
     <definedName name="_st2">Step2!$D$8</definedName>
     <definedName name="_st3">Step3!$C$8</definedName>
     <definedName name="_st31">Step3!$C$21</definedName>
     <definedName name="_st32">Step3!$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Step1!$C$12:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Step2!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Step3!$C$12:$F$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -29,46 +29,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="D25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Property name. "modifiedOn" property indicates the date of the last table modification in OpenL
-Tablets WebStudio.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Property value</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="D29" authorId="0">
@@ -131,10 +92,10 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="C34" authorId="0">
@@ -170,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="149">
   <si>
     <t>Amount</t>
   </si>
@@ -401,9 +362,6 @@
   </si>
   <si>
     <t>Table Properties. Business Dimensional Properties</t>
-  </si>
-  <si>
-    <t>modifiedOn</t>
   </si>
   <si>
     <t>Liquidity Ratio (%)</t>
@@ -1259,9 +1217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="\ &quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="\ &quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1948,7 +1906,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1961,7 +1919,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2003,23 +1961,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,13 +1997,13 @@
     <xf numFmtId="9" fontId="5" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,7 +2063,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,7 +2075,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,102 +2101,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2254,28 +2109,122 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Heading 1 2" xfId="9"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 3" xfId="11"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="13"/>
     <cellStyle name="Normal 2 9" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="5"/>
@@ -2285,6 +2234,8 @@
     <cellStyle name="Normal 7" xfId="7"/>
     <cellStyle name="Normal 7 2" xfId="12"/>
     <cellStyle name="Normal 9" xfId="14"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="6"/>
     <cellStyle name="Обычный 5" xfId="10"/>
   </cellStyles>
@@ -2304,13 +2255,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2482,9 +2433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2522,7 +2473,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2594,7 +2545,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2778,16 +2729,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
@@ -2829,64 +2780,64 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2951,72 +2902,72 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="C19" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="C20" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="C21" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
+      <c r="C22" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -3086,10 +3037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3103,7 +3056,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -3129,18 +3082,18 @@
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,74 +3112,74 @@
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="C12" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3245,33 +3198,31 @@
     </row>
     <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
+      <c r="C24" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
-      <c r="C25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="20">
-        <v>41313.03170702546</v>
-      </c>
+      <c r="D25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>79</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3281,8 +3232,8 @@
       <c r="C27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="13">
-        <v>0</v>
+      <c r="D27" s="14">
+        <v>0.7</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -3293,7 +3244,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -3304,7 +3255,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -3315,7 +3266,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="14">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3326,30 +3277,26 @@
         <v>84</v>
       </c>
       <c r="D31" s="14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="14">
-        <v>1</v>
+      <c r="D32" s="15">
+        <v>0.95</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0.95</v>
-      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
@@ -3362,74 +3309,74 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="C35" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -3446,19 +3393,19 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
@@ -3469,27 +3416,19 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C36:E44"/>
+    <mergeCell ref="C35:E43"/>
     <mergeCell ref="C12:E21"/>
     <mergeCell ref="C8:E9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C48" location="_st2" tooltip="Step2. Business Dimensional Properties. Versioning by properties" display="Step 2."/>
+    <hyperlink ref="C47" location="_st2" tooltip="Step2. Business Dimensional Properties. Versioning by properties" display="Step 2."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3554,11 +3493,11 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="D8" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -3570,9 +3509,9 @@
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3612,13 +3551,13 @@
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="D12" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -3628,11 +3567,11 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -3642,11 +3581,11 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3656,11 +3595,11 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -3670,11 +3609,11 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -3684,11 +3623,11 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -3698,11 +3637,11 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -3712,11 +3651,11 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -3754,13 +3693,13 @@
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
+      <c r="D22" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -3770,11 +3709,11 @@
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3784,11 +3723,11 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3798,11 +3737,11 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3839,472 +3778,472 @@
     </row>
     <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
+      <c r="C28" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>39814</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="68" t="s">
+      <c r="C30" s="101"/>
+      <c r="D30" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <v>40179</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="84" t="s">
+      <c r="C34" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="91" t="s">
+      <c r="F34" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86" t="s">
+      <c r="G34" s="100"/>
+      <c r="H34" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86" t="s">
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="87"/>
+      <c r="L34" s="102"/>
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="28" t="s">
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="27" t="s">
         <v>21</v>
       </c>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="20">
         <v>51650</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="20">
         <v>45750</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="20">
         <v>93200</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="20">
         <v>90400</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="20">
         <v>87000</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="20">
         <v>121500</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="31">
         <v>112500</v>
       </c>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="26" t="s">
+      <c r="C37" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="21">
         <v>52000</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="21">
         <v>44050</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="21">
         <v>93200</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="21">
         <v>90400</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="21">
         <v>87000</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="21">
         <v>121500</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="32">
         <v>112500</v>
       </c>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="26" t="s">
+      <c r="C38" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="95"/>
+      <c r="E38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="21">
         <v>52450</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="21">
         <v>46550</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="21">
         <v>93200</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="21">
         <v>90400</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="21">
         <v>87000</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="21">
         <v>121500</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="32">
         <v>112500</v>
       </c>
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="89" t="s">
+      <c r="C39" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="21">
         <v>53650</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="21">
         <v>47750</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="21">
         <v>94200</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="21">
         <v>91400</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="21">
         <v>88000</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="21">
         <v>121500</v>
       </c>
-      <c r="L39" s="35">
+      <c r="L39" s="32">
         <v>112500</v>
       </c>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
-      <c r="C40" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="26" t="s">
+      <c r="C40" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="95"/>
+      <c r="E40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="21">
         <v>53650</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="21">
         <v>47750</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="21">
         <v>95200</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="21">
         <v>92400</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="21">
         <v>89000</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="21">
         <v>121500</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L40" s="32">
         <v>112500</v>
       </c>
       <c r="M40" s="9"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
-      <c r="C41" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="26" t="s">
+      <c r="C41" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="95"/>
+      <c r="E41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="21">
         <v>53650</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="21">
         <v>47750</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="21">
         <v>96200</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="21">
         <v>93400</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="21">
         <v>90000</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="21">
         <v>121500</v>
       </c>
-      <c r="L41" s="35">
+      <c r="L41" s="32">
         <v>112500</v>
       </c>
       <c r="M41" s="9"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="89" t="s">
+      <c r="C42" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="21">
         <v>56650</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="21">
         <v>49750</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="21">
         <v>93200</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="21">
         <v>90400</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="21">
         <v>87000</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="21">
         <v>121500</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L42" s="32">
         <v>112500</v>
       </c>
       <c r="M42" s="9"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
-      <c r="C43" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="26" t="s">
+      <c r="C43" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="95"/>
+      <c r="E43" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="21">
         <v>56650</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="21">
         <v>49750</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="21">
         <v>93200</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="21">
         <v>90400</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="21">
         <v>87000</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="21">
         <v>121500</v>
       </c>
-      <c r="L43" s="35">
+      <c r="L43" s="32">
         <v>112500</v>
       </c>
       <c r="M43" s="9"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="27" t="s">
+      <c r="C44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="96"/>
+      <c r="E44" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="22">
         <v>56650</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="22">
         <v>49750</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="22">
         <v>93200</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="22">
         <v>90400</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="22">
         <v>87000</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K44" s="22">
         <v>121500</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="33">
         <v>112500</v>
       </c>
       <c r="M44" s="9"/>
@@ -4339,492 +4278,492 @@
     </row>
     <row r="47" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
+      <c r="C47" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
       <c r="M47" s="9"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="19">
         <v>40179</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="9"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="101"/>
+      <c r="D49" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="19">
         <v>40544</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="9"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="21" t="s">
+      <c r="C50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="9"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="9"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="21" t="s">
+      <c r="F52" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
       <c r="M52" s="9"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
-      <c r="C53" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="84" t="s">
+      <c r="C53" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="92" t="s">
+      <c r="E53" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="91" t="s">
+      <c r="F53" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="86" t="s">
+      <c r="I53" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="86" t="s">
+      <c r="J53" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="86" t="s">
+      <c r="K53" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="102" t="s">
         <v>15</v>
       </c>
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="28" t="s">
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="29" t="s">
+      <c r="K54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="27" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
-      <c r="C55" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="88" t="s">
+      <c r="C55" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="20">
         <v>50650</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="20">
         <v>44750</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="20">
         <v>90200</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="20">
         <v>88400</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="20">
         <v>84000</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="20">
         <v>117500</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="31">
         <v>107500</v>
       </c>
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
-      <c r="C56" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="89" t="s">
+      <c r="C56" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="21">
         <v>51000</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="21">
         <v>43050</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="21">
         <v>90200</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="21">
         <v>88400</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="21">
         <v>84000</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="21">
         <v>117500</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="32">
         <v>107500</v>
       </c>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
-      <c r="C57" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="89" t="s">
+      <c r="C57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="21">
         <v>51450</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="21">
         <v>45550</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="21">
         <v>90200</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="21">
         <v>88400</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="21">
         <v>84000</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="21">
         <v>117500</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="32">
         <v>107500</v>
       </c>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
-      <c r="C58" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="89" t="s">
+      <c r="C58" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="21">
         <v>52650</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="21">
         <v>46750</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="21">
         <v>91200</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="21">
         <v>89400</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="21">
         <v>88000</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="21">
         <v>117500</v>
       </c>
-      <c r="L58" s="35">
+      <c r="L58" s="32">
         <v>107500</v>
       </c>
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
-      <c r="C59" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="89" t="s">
+      <c r="C59" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="21">
         <v>52650</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="21">
         <v>46750</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="21">
         <v>92200</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="21">
         <v>90400</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="21">
         <v>89000</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="21">
         <v>117500</v>
       </c>
-      <c r="L59" s="35">
+      <c r="L59" s="32">
         <v>107500</v>
       </c>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
-      <c r="C60" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="89" t="s">
+      <c r="C60" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="21">
         <v>52650</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="21">
         <v>46750</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="21">
         <v>93200</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="21">
         <v>91400</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="21">
         <v>90000</v>
       </c>
-      <c r="K60" s="24">
+      <c r="K60" s="21">
         <v>117500</v>
       </c>
-      <c r="L60" s="35">
+      <c r="L60" s="32">
         <v>107500</v>
       </c>
       <c r="M60" s="9"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
-      <c r="C61" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="89" t="s">
+      <c r="C61" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="21">
         <v>55650</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="21">
         <v>48750</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="21">
         <v>93200</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="21">
         <v>88400</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="21">
         <v>88000</v>
       </c>
-      <c r="K61" s="24">
+      <c r="K61" s="21">
         <v>117500</v>
       </c>
-      <c r="L61" s="35">
+      <c r="L61" s="32">
         <v>107500</v>
       </c>
       <c r="M61" s="9"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
-      <c r="C62" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="89" t="s">
+      <c r="C62" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="21">
         <v>55650</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="21">
         <v>48750</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="21">
         <v>93200</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="21">
         <v>88400</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="21">
         <v>88000</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K62" s="21">
         <v>117500</v>
       </c>
-      <c r="L62" s="35">
+      <c r="L62" s="32">
         <v>107500</v>
       </c>
       <c r="M62" s="9"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
-      <c r="C63" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="90" t="s">
+      <c r="C63" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="22">
         <v>55650</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="22">
         <v>48750</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="22">
         <v>93200</v>
       </c>
-      <c r="I63" s="25">
+      <c r="I63" s="22">
         <v>88400</v>
       </c>
-      <c r="J63" s="25">
+      <c r="J63" s="22">
         <v>88000</v>
       </c>
-      <c r="K63" s="25">
+      <c r="K63" s="22">
         <v>117500</v>
       </c>
-      <c r="L63" s="36">
+      <c r="L63" s="33">
         <v>107500</v>
       </c>
       <c r="M63" s="9"/>
@@ -4860,13 +4799,13 @@
     <row r="66" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
+      <c r="D66" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4876,19 +4815,19 @@
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="21"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4898,15 +4837,15 @@
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21" t="s">
+      <c r="E68" s="18"/>
+      <c r="F68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4916,15 +4855,15 @@
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
+      <c r="D69" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4937,16 +4876,16 @@
       <c r="D70" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="40" t="s">
+      <c r="G70" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H70" s="38" t="s">
         <v>15</v>
       </c>
       <c r="I70" s="9"/>
@@ -4958,19 +4897,19 @@
     <row r="71" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="43">
+      <c r="D71" s="40">
         <v>1</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="32">
+      <c r="F71" s="29">
         <v>0</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="29">
         <v>0</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="34">
         <v>0</v>
       </c>
       <c r="I71" s="9"/>
@@ -4982,19 +4921,19 @@
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="44">
+      <c r="D72" s="41">
         <v>2</v>
       </c>
-      <c r="E72" s="47" t="s">
+      <c r="E72" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="29">
         <v>0.01</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="29">
         <v>0.01</v>
       </c>
-      <c r="H72" s="38">
+      <c r="H72" s="35">
         <v>0.01</v>
       </c>
       <c r="I72" s="9"/>
@@ -5006,19 +4945,19 @@
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="44">
+      <c r="D73" s="41">
         <v>3</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E73" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="29">
         <v>0.02</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="29">
         <v>0.02</v>
       </c>
-      <c r="H73" s="38">
+      <c r="H73" s="35">
         <v>0.02</v>
       </c>
       <c r="I73" s="9"/>
@@ -5030,19 +4969,19 @@
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E74" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F74" s="29">
         <v>0.05</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="29">
         <v>0.03</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74" s="35">
         <v>0.04</v>
       </c>
       <c r="I74" s="9"/>
@@ -5054,19 +4993,19 @@
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F75" s="29">
         <v>0.1</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G75" s="29">
         <v>0.04</v>
       </c>
-      <c r="H75" s="38">
+      <c r="H75" s="35">
         <v>0.06</v>
       </c>
       <c r="I75" s="9"/>
@@ -5078,19 +5017,19 @@
     <row r="76" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="33">
+      <c r="F76" s="30">
         <v>0.15</v>
       </c>
-      <c r="G76" s="33">
+      <c r="G76" s="30">
         <v>0.05</v>
       </c>
-      <c r="H76" s="39">
+      <c r="H76" s="36">
         <v>0.08</v>
       </c>
       <c r="I76" s="9"/>
@@ -5130,11 +5069,11 @@
     <row r="79" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
+      <c r="D79" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -5146,13 +5085,13 @@
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="96" t="s">
+      <c r="D80" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="96"/>
+      <c r="F80" s="90"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -5164,13 +5103,13 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="F81" s="97"/>
+      <c r="D81" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" s="91"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -5182,13 +5121,13 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="F82" s="97"/>
+      <c r="E82" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="91"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -5200,13 +5139,13 @@
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="97"/>
+      <c r="D83" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="91"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -5218,13 +5157,13 @@
     <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="98"/>
+      <c r="D84" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="92"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -5236,13 +5175,13 @@
     <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="99"/>
+      <c r="E85" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="93"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -5282,8 +5221,8 @@
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="52" t="s">
-        <v>99</v>
+      <c r="D88" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -5326,10 +5265,10 @@
     <row r="91" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E91" s="94" t="s">
+      <c r="D91" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="86" t="s">
         <v>71</v>
       </c>
       <c r="F91" s="9"/>
@@ -5344,10 +5283,10 @@
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E92" s="54" t="s">
+      <c r="E92" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="9"/>
@@ -5362,10 +5301,10 @@
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E93" s="55" t="s">
+      <c r="E93" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="9"/>
@@ -5408,10 +5347,10 @@
     <row r="96" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="E96" s="94"/>
+      <c r="D96" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="86"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -5424,10 +5363,10 @@
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="54" t="s">
+      <c r="E97" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="9"/>
@@ -5442,10 +5381,10 @@
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="55" t="s">
+      <c r="D98" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E98" s="55" t="s">
+      <c r="E98" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F98" s="9"/>
@@ -5488,8 +5427,8 @@
     <row r="101" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="53" t="s">
-        <v>109</v>
+      <c r="D101" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -5504,7 +5443,7 @@
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="54" t="s">
+      <c r="D102" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E102" s="9"/>
@@ -5520,7 +5459,7 @@
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="54" t="s">
+      <c r="D103" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="9"/>
@@ -5536,7 +5475,7 @@
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="55" t="s">
+      <c r="D104" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="9"/>
@@ -5580,8 +5519,8 @@
     <row r="107" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="53" t="s">
-        <v>108</v>
+      <c r="D107" s="50" t="s">
+        <v>107</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -5596,7 +5535,7 @@
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="54" t="s">
+      <c r="D108" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="9"/>
@@ -5612,7 +5551,7 @@
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="54" t="s">
+      <c r="D109" s="51" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="9"/>
@@ -5628,7 +5567,7 @@
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E110" s="9"/>
@@ -5686,13 +5625,13 @@
     <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" s="78"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
+      <c r="D114" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E114" s="81"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="81"/>
+      <c r="H114" s="81"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -5702,11 +5641,11 @@
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="79"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="82"/>
+      <c r="H115" s="82"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -5716,11 +5655,11 @@
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="80"/>
-      <c r="E116" s="80"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="80"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -5758,13 +5697,13 @@
     <row r="119" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="E119" s="77"/>
-      <c r="F119" s="77"/>
-      <c r="G119" s="77"/>
-      <c r="H119" s="77"/>
+      <c r="D119" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="80"/>
+      <c r="F119" s="80"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="80"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -5774,19 +5713,19 @@
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G120" s="21" t="s">
+      <c r="G120" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H120" s="21" t="s">
+      <c r="H120" s="18" t="s">
         <v>63</v>
       </c>
       <c r="I120" s="9"/>
@@ -5798,15 +5737,15 @@
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21" t="s">
+      <c r="D121" s="18"/>
+      <c r="E121" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H121" s="21"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H121" s="18"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
@@ -5816,20 +5755,20 @@
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="57" t="s">
+      <c r="D122" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E122" s="57" t="s">
+      <c r="E122" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F122" s="57" t="s">
+      <c r="F122" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G122" s="57" t="s">
+      <c r="G122" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="H122" s="58" t="s">
-        <v>112</v>
+      <c r="H122" s="55" t="s">
+        <v>111</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5840,19 +5779,19 @@
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="E123" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F123" s="50">
+      <c r="F123" s="47">
         <v>3</v>
       </c>
-      <c r="G123" s="50" t="s">
+      <c r="G123" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H123" s="56">
+      <c r="H123" s="53">
         <v>157731</v>
       </c>
       <c r="I123" s="9"/>
@@ -5864,19 +5803,19 @@
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F124" s="50">
+      <c r="F124" s="47">
         <v>9</v>
       </c>
-      <c r="G124" s="50" t="s">
+      <c r="G124" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H124" s="56">
+      <c r="H124" s="53">
         <v>796860</v>
       </c>
       <c r="I124" s="9"/>
@@ -5888,19 +5827,19 @@
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="E125" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F125" s="50">
+      <c r="F125" s="47">
         <v>7</v>
       </c>
-      <c r="G125" s="50" t="s">
+      <c r="G125" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H125" s="56">
+      <c r="H125" s="53">
         <v>799470</v>
       </c>
       <c r="I125" s="9"/>
@@ -5912,19 +5851,19 @@
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="50" t="s">
+      <c r="D126" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="E126" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="50">
+      <c r="F126" s="47">
         <v>3</v>
       </c>
-      <c r="G126" s="50" t="s">
+      <c r="G126" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H126" s="56">
+      <c r="H126" s="53">
         <v>154791</v>
       </c>
       <c r="I126" s="9"/>
@@ -5936,19 +5875,19 @@
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E127" s="50" t="s">
+      <c r="E127" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F127" s="50">
+      <c r="F127" s="47">
         <v>9</v>
       </c>
-      <c r="G127" s="50" t="s">
+      <c r="G127" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H127" s="56">
+      <c r="H127" s="53">
         <v>771210</v>
       </c>
       <c r="I127" s="9"/>
@@ -5960,19 +5899,19 @@
     <row r="128" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="59" t="s">
+      <c r="D128" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E128" s="59" t="s">
+      <c r="E128" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F128" s="59">
+      <c r="F128" s="56">
         <v>7</v>
       </c>
-      <c r="G128" s="59" t="s">
+      <c r="G128" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H128" s="60">
+      <c r="H128" s="57">
         <v>773150</v>
       </c>
       <c r="I128" s="9"/>
@@ -6012,12 +5951,12 @@
     <row r="131" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77"/>
-      <c r="G131" s="77"/>
+      <c r="D131" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="80"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -6028,16 +5967,16 @@
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="21" t="s">
+      <c r="D132" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E132" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F132" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G132" s="21" t="s">
+      <c r="G132" s="18" t="s">
         <v>63</v>
       </c>
       <c r="H132" s="9"/>
@@ -6050,14 +5989,14 @@
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" s="21" t="s">
+      <c r="D133" s="18"/>
+      <c r="E133" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G133" s="21"/>
+      <c r="F133" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G133" s="18"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6068,17 +6007,17 @@
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="57" t="s">
+      <c r="D134" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E134" s="57" t="s">
+      <c r="E134" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F134" s="57" t="s">
+      <c r="F134" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="G134" s="58" t="s">
-        <v>113</v>
+      <c r="G134" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -6090,16 +6029,16 @@
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="50" t="s">
+      <c r="D135" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E135" s="50" t="s">
+      <c r="E135" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F135" s="50" t="s">
+      <c r="F135" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G135" s="56">
+      <c r="G135" s="53">
         <v>53650</v>
       </c>
       <c r="H135" s="9"/>
@@ -6112,16 +6051,16 @@
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="50" t="s">
+      <c r="D136" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E136" s="50" t="s">
+      <c r="E136" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F136" s="50" t="s">
+      <c r="F136" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G136" s="56">
+      <c r="G136" s="53">
         <v>93200</v>
       </c>
       <c r="H136" s="9"/>
@@ -6134,16 +6073,16 @@
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="59" t="s">
+      <c r="D137" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E137" s="59" t="s">
+      <c r="E137" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F137" s="59" t="s">
+      <c r="F137" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G137" s="60">
+      <c r="G137" s="57">
         <v>121500</v>
       </c>
       <c r="H137" s="9"/>
@@ -6212,11 +6151,11 @@
     <row r="142" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
+      <c r="D142" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -6228,13 +6167,13 @@
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="65" t="s">
+      <c r="D143" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E143" s="65" t="s">
+      <c r="E143" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="65" t="s">
+      <c r="F143" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G143" s="9"/>
@@ -6248,13 +6187,13 @@
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E144" s="57" t="s">
+      <c r="D144" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F144" s="57" t="s">
+      <c r="F144" s="54" t="s">
         <v>59</v>
       </c>
       <c r="G144" s="9"/>
@@ -6268,13 +6207,13 @@
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="62" t="s">
+      <c r="D145" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E145" s="62" t="s">
+      <c r="E145" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F145" s="62" t="s">
+      <c r="F145" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="9"/>
@@ -6288,13 +6227,13 @@
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="63" t="s">
+      <c r="D146" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E146" s="63" t="s">
+      <c r="E146" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F146" s="63" t="s">
+      <c r="F146" s="60" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="9"/>
@@ -6308,13 +6247,13 @@
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="63" t="s">
+      <c r="D147" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E147" s="63" t="s">
+      <c r="E147" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F147" s="63" t="s">
+      <c r="F147" s="60" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="9"/>
@@ -6328,13 +6267,13 @@
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="63" t="s">
+      <c r="D148" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E148" s="63" t="s">
+      <c r="E148" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F148" s="63" t="s">
+      <c r="F148" s="60" t="s">
         <v>22</v>
       </c>
       <c r="G148" s="9"/>
@@ -6348,13 +6287,13 @@
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="63" t="s">
+      <c r="D149" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E149" s="63" t="s">
+      <c r="E149" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="63" t="s">
+      <c r="F149" s="60" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="9"/>
@@ -6368,13 +6307,13 @@
     <row r="150" spans="2:13" ht="27" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="63" t="s">
+      <c r="D150" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E150" s="63" t="s">
+      <c r="E150" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F150" s="63" t="s">
+      <c r="F150" s="60" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="9"/>
@@ -6388,13 +6327,13 @@
     <row r="151" spans="2:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="64" t="s">
+      <c r="D151" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E151" s="64" t="s">
+      <c r="E151" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="64" t="s">
+      <c r="F151" s="61" t="s">
         <v>21</v>
       </c>
       <c r="G151" s="9"/>
@@ -6436,10 +6375,10 @@
     <row r="154" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E154" s="77"/>
+      <c r="D154" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" s="80"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -6452,10 +6391,10 @@
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="65" t="s">
+      <c r="D155" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="65" t="s">
+      <c r="E155" s="62" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="9"/>
@@ -6470,10 +6409,10 @@
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="57" t="s">
+      <c r="D156" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E156" s="57" t="s">
+      <c r="E156" s="54" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="9"/>
@@ -6488,10 +6427,10 @@
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
-      <c r="D157" s="61" t="s">
+      <c r="D157" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="61" t="s">
+      <c r="E157" s="58" t="s">
         <v>31</v>
       </c>
       <c r="F157" s="9"/>
@@ -6506,10 +6445,10 @@
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="61" t="s">
+      <c r="D158" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E158" s="61" t="s">
+      <c r="E158" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F158" s="9"/>
@@ -6524,10 +6463,10 @@
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="61" t="s">
+      <c r="D159" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E159" s="61" t="s">
+      <c r="E159" s="58" t="s">
         <v>28</v>
       </c>
       <c r="F159" s="9"/>
@@ -6542,10 +6481,10 @@
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="61" t="s">
+      <c r="D160" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E160" s="61" t="s">
+      <c r="E160" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F160" s="9"/>
@@ -6560,10 +6499,10 @@
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="66" t="s">
+      <c r="D161" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="66" t="s">
+      <c r="E161" s="63" t="s">
         <v>32</v>
       </c>
       <c r="F161" s="9"/>
@@ -6663,11 +6602,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D114:H116"/>
-    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D12:H19"/>
+    <mergeCell ref="D22:H25"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="D36:D38"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="E53:E54"/>
@@ -6684,25 +6637,11 @@
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D12:H19"/>
-    <mergeCell ref="D22:H25"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D114:H116"/>
+    <mergeCell ref="D131:G131"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D165" location="_st3" tooltip="Step3. Category and Module Level Properties" display="Step 3."/>
@@ -6727,14 +6666,14 @@
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.140625" style="101" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="101" customWidth="1"/>
+    <col min="7" max="8" width="21.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="66" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -6765,11 +6704,11 @@
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="C8" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6777,9 +6716,9 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6807,11 +6746,11 @@
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="C12" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -6819,9 +6758,9 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6829,9 +6768,9 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -6839,9 +6778,9 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -6899,11 +6838,11 @@
     </row>
     <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="C21" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -6919,7 +6858,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -6929,89 +6868,89 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="C24" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7021,7 +6960,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -7033,10 +6972,10 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="104"/>
+      <c r="C34" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="105"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -7045,11 +6984,11 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="67" t="s">
         <v>139</v>
-      </c>
-      <c r="D35" s="102" t="s">
-        <v>140</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -7059,10 +6998,10 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="107">
+      <c r="D36" s="71">
         <v>39814</v>
       </c>
       <c r="E36" s="9"/>
@@ -7073,10 +7012,10 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="106">
+      <c r="C37" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="70">
         <v>39600</v>
       </c>
       <c r="E37" s="9"/>
@@ -7105,7 +7044,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -7137,11 +7076,11 @@
     </row>
     <row r="43" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="C43" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
+      <c r="C43" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -7169,11 +7108,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
-      <c r="C46" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
+      <c r="C46" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -7181,19 +7120,19 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -7201,9 +7140,9 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -7211,9 +7150,9 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7221,9 +7160,9 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -7251,11 +7190,11 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
-      <c r="C54" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
+      <c r="C54" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -7263,9 +7202,9 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -7273,9 +7212,9 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -7283,9 +7222,9 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -7293,15 +7232,15 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -7311,7 +7250,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -7321,7 +7260,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -7331,7 +7270,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -7341,7 +7280,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -7351,7 +7290,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -7361,7 +7300,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -7371,7 +7310,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -7381,7 +7320,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -7391,7 +7330,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -7401,7 +7340,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -7411,7 +7350,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -7421,7 +7360,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -7431,7 +7370,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -7441,7 +7380,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -7451,19 +7390,19 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
-      <c r="C74" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="108"/>
-      <c r="E74" s="108"/>
+      <c r="C74" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -7473,7 +7412,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -7483,7 +7422,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -7493,7 +7432,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -7503,7 +7442,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -7513,7 +7452,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -7523,7 +7462,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -7533,7 +7472,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -7543,7 +7482,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -7553,7 +7492,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -7563,7 +7502,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -7573,7 +7512,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -7583,7 +7522,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -7593,7 +7532,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -7603,7 +7542,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -7613,7 +7552,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -7623,7 +7562,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -7633,7 +7572,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -7643,7 +7582,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -7655,15 +7594,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C12:E15"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C46:E51"/>
     <mergeCell ref="C24:E31"/>
     <mergeCell ref="C54:E58"/>
     <mergeCell ref="C74:E74"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C12:E15"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
